--- a/src/main/resources/James.Template.xlsx
+++ b/src/main/resources/James.Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="273">
   <si>
     <t>Column</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,466 +561,555 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DELETE&amp;INSERT
+    <t>UPDATE&amp;INSERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E001001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E001002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E01000000</t>
+  </si>
+  <si>
+    <t>E02000000</t>
+  </si>
+  <si>
+    <t>E03000000</t>
+  </si>
+  <si>
+    <t>E04000000</t>
+  </si>
+  <si>
+    <t>E05000000</t>
+  </si>
+  <si>
+    <t>E06000000</t>
+  </si>
+  <si>
+    <t>E04010000</t>
+  </si>
+  <si>
+    <t>E04010100</t>
+  </si>
+  <si>
+    <t>E04010101</t>
+  </si>
+  <si>
+    <t>E04010102</t>
+  </si>
+  <si>
+    <t>BR000000</t>
+  </si>
+  <si>
+    <t>BR001000</t>
+  </si>
+  <si>
+    <t>BR001001</t>
+  </si>
+  <si>
+    <t>BR001002</t>
+  </si>
+  <si>
+    <t>DE00000000</t>
+  </si>
+  <si>
+    <t>DE01000000</t>
+  </si>
+  <si>
+    <t>DE02000000</t>
+  </si>
+  <si>
+    <t>DE03000000</t>
+  </si>
+  <si>
+    <t>DE04000000</t>
+  </si>
+  <si>
+    <t>DE05000000</t>
+  </si>
+  <si>
+    <t>DE06000000</t>
+  </si>
+  <si>
+    <t>DE04010000</t>
+  </si>
+  <si>
+    <t>DE04010100</t>
+  </si>
+  <si>
+    <t>DE04010101</t>
+  </si>
+  <si>
+    <t>DE04010102</t>
+  </si>
+  <si>
+    <t>EM000000000</t>
+  </si>
+  <si>
+    <t>EM000000001</t>
+  </si>
+  <si>
+    <t>EM000000002</t>
+  </si>
+  <si>
+    <t>EM000000003</t>
+  </si>
+  <si>
+    <t>EM000000004</t>
+  </si>
+  <si>
+    <t>EM000000005</t>
+  </si>
+  <si>
+    <t>EM000000006</t>
+  </si>
+  <si>
+    <t>EM000000007</t>
+  </si>
+  <si>
+    <t>EM000000008</t>
+  </si>
+  <si>
+    <t>EM000000009</t>
+  </si>
+  <si>
+    <t>EM000000010</t>
+  </si>
+  <si>
+    <t>EM000000011</t>
+  </si>
+  <si>
+    <t>EM000000012</t>
+  </si>
+  <si>
+    <t>EM000000013</t>
+  </si>
+  <si>
+    <t>EM000000014</t>
+  </si>
+  <si>
+    <t>EM000000015</t>
+  </si>
+  <si>
+    <t>EM000000016</t>
+  </si>
+  <si>
+    <t>EM000000017</t>
+  </si>
+  <si>
+    <t>EM000000018</t>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_EntityRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_EntityRelation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO_DATE('?','yyyy-MM-dd')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Employee_Certificate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Certificate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTSqlMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDCKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:Null Not Update
+N:Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y
+N:Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONSTRING</t>
+  </si>
+  <si>
+    <t>NONSTRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCNullSelective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCDefaultValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECSeparator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database Table Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Excel Sheet Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(One Table One Sheet)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Database Table Sql Mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(One Table One Mode)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+DELETE&amp;INSERT
 UPDATE&amp;INSERT
 INSERT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE&amp;INSERT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entity ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employee Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT
-VARCHAR
-DATE
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Database Column DataType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+STRING:Default
+NONSTRING
 TO_DATE('?','yyyy-MM-dd')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E001001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E001002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E01000000</t>
-  </si>
-  <si>
-    <t>E02000000</t>
-  </si>
-  <si>
-    <t>E03000000</t>
-  </si>
-  <si>
-    <t>E04000000</t>
-  </si>
-  <si>
-    <t>E05000000</t>
-  </si>
-  <si>
-    <t>E06000000</t>
-  </si>
-  <si>
-    <t>E04010000</t>
-  </si>
-  <si>
-    <t>E04010100</t>
-  </si>
-  <si>
-    <t>E04010101</t>
-  </si>
-  <si>
-    <t>E04010102</t>
-  </si>
-  <si>
-    <t>BR000000</t>
-  </si>
-  <si>
-    <t>BR001000</t>
-  </si>
-  <si>
-    <t>BR001001</t>
-  </si>
-  <si>
-    <t>BR001002</t>
-  </si>
-  <si>
-    <t>DE00000000</t>
-  </si>
-  <si>
-    <t>DE01000000</t>
-  </si>
-  <si>
-    <t>DE02000000</t>
-  </si>
-  <si>
-    <t>DE03000000</t>
-  </si>
-  <si>
-    <t>DE04000000</t>
-  </si>
-  <si>
-    <t>DE05000000</t>
-  </si>
-  <si>
-    <t>DE06000000</t>
-  </si>
-  <si>
-    <t>DE04010000</t>
-  </si>
-  <si>
-    <t>DE04010100</t>
-  </si>
-  <si>
-    <t>DE04010101</t>
-  </si>
-  <si>
-    <t>DE04010102</t>
-  </si>
-  <si>
-    <t>EM000000000</t>
-  </si>
-  <si>
-    <t>EM000000001</t>
-  </si>
-  <si>
-    <t>EM000000002</t>
-  </si>
-  <si>
-    <t>EM000000003</t>
-  </si>
-  <si>
-    <t>EM000000004</t>
-  </si>
-  <si>
-    <t>EM000000005</t>
-  </si>
-  <si>
-    <t>EM000000006</t>
-  </si>
-  <si>
-    <t>EM000000007</t>
-  </si>
-  <si>
-    <t>EM000000008</t>
-  </si>
-  <si>
-    <t>EM000000009</t>
-  </si>
-  <si>
-    <t>EM000000010</t>
-  </si>
-  <si>
-    <t>EM000000011</t>
-  </si>
-  <si>
-    <t>EM000000012</t>
-  </si>
-  <si>
-    <t>EM000000013</t>
-  </si>
-  <si>
-    <t>EM000000014</t>
-  </si>
-  <si>
-    <t>EM000000015</t>
-  </si>
-  <si>
-    <t>EM000000016</t>
-  </si>
-  <si>
-    <t>EM000000017</t>
-  </si>
-  <si>
-    <t>EM000000018</t>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Entity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_EntityRole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_EntityRelation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relation_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supervisor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Superior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO_DATE('?','yyyy-MM-dd')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supervisor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Employee_Certificate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>certificate_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Certificate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CertificateName2CodeProcesser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DBTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DTSqlMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DBColumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EColumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCDataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDCKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCNullSelective</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCDefaultValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ECSeparator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y:Null Not Update
-N:Default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y
-N:Default</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CertificateNameList2CodeProcesser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if can process collection
+, please contain 'List'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1028,7 +1117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1072,6 +1161,18 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
       <charset val="136"/>
     </font>
@@ -1119,7 +1220,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1131,6 +1232,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1414,7 +1516,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1537,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1452,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1483,7 +1585,7 @@
         <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,7 +1621,7 @@
         <v>128</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1590,144 +1692,149 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="61.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="61.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>268</v>
+      </c>
       <c r="C1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>152</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>207</v>
+      <c r="I6" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1738,49 +1845,40 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>210</v>
+      <c r="J11" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
@@ -1789,416 +1887,356 @@
         <v>143</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>154</v>
+        <v>201</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>207</v>
+      <c r="I14" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="H45" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>128</v>
@@ -2207,46 +2245,40 @@
         <v>143</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F48" s="1" t="s">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D49" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>128</v>
@@ -2255,142 +2287,124 @@
         <v>143</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D53" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D54" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F56" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D57" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="B60" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F60" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D61" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D62" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>19</v>
@@ -2399,84 +2413,72 @@
         <v>143</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>154</v>
+      <c r="I64" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D65" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D66" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>247</v>
+        <v>216</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>154</v>
+      <c r="I68" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D69" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>255</v>
+        <v>271</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2506,7 +2508,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -2523,10 +2525,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>124</v>
@@ -2540,67 +2542,67 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2631,7 +2633,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -2651,7 +2653,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2666,7 +2668,7 @@
         <v>127</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2674,216 +2676,216 @@
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2898,7 +2900,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2918,10 +2920,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
@@ -2950,7 +2952,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2968,13 +2970,13 @@
         <v>131</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>37</v>
@@ -2985,7 +2987,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>58</v>
@@ -3000,10 +3002,10 @@
         <v>133</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3011,7 +3013,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>59</v>
@@ -3026,13 +3028,13 @@
         <v>134</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3040,7 +3042,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>60</v>
@@ -3055,13 +3057,13 @@
         <v>133</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3069,7 +3071,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -3084,13 +3086,13 @@
         <v>134</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3098,7 +3100,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -3113,13 +3115,13 @@
         <v>133</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3127,7 +3129,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>63</v>
@@ -3142,13 +3144,13 @@
         <v>134</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3156,7 +3158,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>64</v>
@@ -3171,13 +3173,13 @@
         <v>133</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3185,7 +3187,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>65</v>
@@ -3200,13 +3202,13 @@
         <v>134</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3214,7 +3216,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>66</v>
@@ -3232,13 +3234,13 @@
         <v>139</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3246,7 +3248,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>67</v>
@@ -3264,13 +3266,13 @@
         <v>140</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3278,7 +3280,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>68</v>
@@ -3296,13 +3298,13 @@
         <v>141</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3310,7 +3312,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>69</v>
@@ -3325,13 +3327,13 @@
         <v>134</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3339,7 +3341,7 @@
         <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>70</v>
@@ -3357,13 +3359,13 @@
         <v>139</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3371,7 +3373,7 @@
         <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>71</v>
@@ -3389,13 +3391,13 @@
         <v>140</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3403,7 +3405,7 @@
         <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>72</v>
@@ -3421,13 +3423,13 @@
         <v>141</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3435,7 +3437,7 @@
         <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>73</v>
@@ -3450,13 +3452,13 @@
         <v>134</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3464,7 +3466,7 @@
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>74</v>
@@ -3482,13 +3484,13 @@
         <v>139</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3496,7 +3498,7 @@
         <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>75</v>
@@ -3514,13 +3516,13 @@
         <v>140</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3528,7 +3530,7 @@
         <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>76</v>
@@ -3546,13 +3548,13 @@
         <v>141</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/James.Template.xlsx
+++ b/src/main/resources/James.Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="270">
   <si>
     <t>Column</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -753,204 +753,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>T_Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_EntityRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_EntityRelation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO_DATE('?','yyyy-MM-dd')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Employee_Certificate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Certificate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTSqlMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDCKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Entity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_EntityRole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_EntityRelation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relation_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supervisor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Superior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO_DATE('?','yyyy-MM-dd')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supervisor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Employee_Certificate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>certificate_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Certificate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DTSqlMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDCKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y:Null Not Update
-N:Default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -983,10 +974,6 @@
   </si>
   <si>
     <t>DCDataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCNullSelective</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1034,6 +1021,15 @@
       </rPr>
       <t>(One Table One Sheet)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CertificateNameList2CodeProcesser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if can process collection
+, please contain 'List'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1075,7 +1071,7 @@
       <t xml:space="preserve">
 DELETE&amp;INSERT
 UPDATE&amp;INSERT
-INSERT</t>
+INSERT:Default</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1101,15 +1097,6 @@
 NONSTRING
 TO_DATE('?','yyyy-MM-dd')</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CertificateNameList2CodeProcesser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if can process collection
-, please contain 'List'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1537,7 +1524,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1621,7 +1608,7 @@
         <v>128</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,11 +1676,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="61.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1707,80 +1694,73 @@
     <col min="7" max="7" width="35.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="61.83203125" style="1"/>
+    <col min="10" max="10" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="61.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>144</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -1789,7 +1769,7 @@
         <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>150</v>
@@ -1798,9 +1778,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1809,15 +1789,15 @@
         <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -1826,18 +1806,18 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>145</v>
       </c>
@@ -1848,37 +1828,34 @@
         <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>202</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
@@ -1887,7 +1864,7 @@
         <v>143</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>201</v>
@@ -1896,9 +1873,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -1907,29 +1884,29 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>150</v>
@@ -1938,26 +1915,26 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>5</v>
@@ -1966,68 +1943,65 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>202</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>201</v>
@@ -2036,9 +2010,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
@@ -2047,29 +2021,29 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>201</v>
@@ -2078,9 +2052,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>127</v>
@@ -2089,20 +2063,20 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>128</v>
@@ -2111,7 +2085,7 @@
         <v>146</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>150</v>
@@ -2120,9 +2094,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>128</v>
@@ -2131,15 +2105,15 @@
         <v>146</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>5</v>
@@ -2148,95 +2122,83 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
         <v>202</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>128</v>
@@ -2245,7 +2207,7 @@
         <v>143</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>201</v>
@@ -2254,31 +2216,31 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D50" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>128</v>
@@ -2287,7 +2249,7 @@
         <v>143</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>201</v>
@@ -2296,9 +2258,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D53" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>127</v>
@@ -2307,82 +2269,82 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D54" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D57" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D58" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D61" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>201</v>
@@ -2391,20 +2353,20 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D62" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>19</v>
@@ -2413,7 +2375,7 @@
         <v>143</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>125</v>
@@ -2422,9 +2384,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D65" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>201</v>
@@ -2433,29 +2395,29 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D66" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K66" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>5</v>
@@ -2464,18 +2426,18 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D69" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>204</v>
@@ -2668,7 +2630,7 @@
         <v>127</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2970,13 +2932,13 @@
         <v>131</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>37</v>

--- a/src/main/resources/James.Template.xlsx
+++ b/src/main/resources/James.Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="274">
   <si>
     <t>Column</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,10 +485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Branch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
@@ -549,22 +545,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DELETE&amp;INSERT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCProcesser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UPDATE&amp;INSERT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,14 +761,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>entity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>role_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,10 +773,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Supervisor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,14 +789,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_Department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1212</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -841,10 +805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Superior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1313</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -873,18 +833,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TO_DATE('?','yyyy-MM-dd')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supervisor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1312</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,10 +841,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_Employee_Certificate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Employee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -909,10 +853,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>certificate_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Certificate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -930,22 +870,6 @@
   </si>
   <si>
     <t>ESheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DTSqlMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDCKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel Column</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -963,25 +887,6 @@
   </si>
   <si>
     <t>EColumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NONSTRING</t>
-  </si>
-  <si>
-    <t>NONSTRING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCDataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCDefaultValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ECSeparator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1024,80 +929,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CertificateNameList2CodeProcesser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if can process collection
-, please contain 'List'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Database Table Sql Mode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(One Table One Mode)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-DELETE&amp;INSERT
-UPDATE&amp;INSERT
-INSERT:Default</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Database Column DataType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-STRING:Default
-NONSTRING
-TO_DATE('?','yyyy-MM-dd')</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>seq_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity_seq_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entityRole_seq_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_EntityRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y
+N:Default
+SEQ_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Employee_Certificate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Certificate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBColumnSql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BizKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Separator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(select seq_id from T_Entity where entity_id ＝ {0})</t>
+  </si>
+  <si>
+    <t>(select seq_id from T_EntityRole where role_code ＝ {0})</t>
+  </si>
+  <si>
+    <t>(select seq_id from T_Certificate where name ＝ {0})</t>
   </si>
 </sst>
 </file>
@@ -1502,8 +1457,8 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1519,12 +1474,12 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1541,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1554,7 +1509,7 @@
         <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,7 +1527,7 @@
         <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,7 +1540,7 @@
         <v>123</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1605,10 +1560,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1621,7 +1576,7 @@
         <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -1642,15 +1597,15 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -1676,771 +1631,935 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="61.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="61.83203125" style="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>268</v>
+        <v>241</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="G91" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D42" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D44" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D45" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D46" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D49" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D50" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D53" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D54" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D61" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D62" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D65" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D66" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D69" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2470,7 +2589,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -2487,10 +2606,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>124</v>
@@ -2504,67 +2623,67 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2579,7 +2698,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2595,7 +2714,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -2615,10 +2734,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>261</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
@@ -2627,10 +2746,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>216</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2638,216 +2757,216 @@
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2862,7 +2981,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2882,10 +3001,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
@@ -2897,10 +3016,10 @@
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>20</v>
@@ -2914,7 +3033,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2929,19 +3048,19 @@
         <v>81</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>37</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2949,7 +3068,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>58</v>
@@ -2961,13 +3080,13 @@
         <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2975,7 +3094,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>59</v>
@@ -2987,16 +3106,16 @@
         <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3004,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>60</v>
@@ -3016,16 +3135,16 @@
         <v>105</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3033,7 +3152,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -3045,16 +3164,16 @@
         <v>106</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3062,7 +3181,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -3074,16 +3193,16 @@
         <v>107</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3091,7 +3210,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>63</v>
@@ -3103,16 +3222,16 @@
         <v>108</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3120,7 +3239,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>64</v>
@@ -3132,16 +3251,16 @@
         <v>109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3149,7 +3268,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>65</v>
@@ -3161,16 +3280,16 @@
         <v>110</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3178,7 +3297,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>66</v>
@@ -3190,19 +3309,19 @@
         <v>111</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3210,7 +3329,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>67</v>
@@ -3222,19 +3341,19 @@
         <v>112</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3242,7 +3361,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>68</v>
@@ -3254,19 +3373,19 @@
         <v>113</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3274,7 +3393,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>69</v>
@@ -3286,16 +3405,16 @@
         <v>114</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3303,7 +3422,7 @@
         <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>70</v>
@@ -3315,19 +3434,19 @@
         <v>115</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3335,7 +3454,7 @@
         <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>71</v>
@@ -3347,19 +3466,19 @@
         <v>116</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3367,7 +3486,7 @@
         <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>72</v>
@@ -3379,19 +3498,19 @@
         <v>117</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3399,7 +3518,7 @@
         <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>73</v>
@@ -3411,16 +3530,16 @@
         <v>118</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3428,7 +3547,7 @@
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>74</v>
@@ -3440,19 +3559,19 @@
         <v>119</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3460,7 +3579,7 @@
         <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>75</v>
@@ -3472,19 +3591,19 @@
         <v>120</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3492,7 +3611,7 @@
         <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>76</v>
@@ -3504,19 +3623,19 @@
         <v>121</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
